--- a/Code/Results/Cases/Case_3_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005697809652111</v>
+        <v>1.029376799356197</v>
       </c>
       <c r="D2">
-        <v>1.021987982216155</v>
+        <v>1.033094477126458</v>
       </c>
       <c r="E2">
-        <v>1.017071147056525</v>
+        <v>1.038765405128893</v>
       </c>
       <c r="F2">
-        <v>1.018387380580373</v>
+        <v>1.048752612011598</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046306234134371</v>
+        <v>1.035446552766692</v>
       </c>
       <c r="J2">
-        <v>1.027709425603335</v>
+        <v>1.034523914377592</v>
       </c>
       <c r="K2">
-        <v>1.033149258278566</v>
+        <v>1.035897815932917</v>
       </c>
       <c r="L2">
-        <v>1.028297668376875</v>
+        <v>1.041552506389207</v>
       </c>
       <c r="M2">
-        <v>1.02959635826838</v>
+        <v>1.051511580072573</v>
       </c>
       <c r="N2">
-        <v>1.0131845403314</v>
+        <v>1.015523357451605</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00945319785588</v>
+        <v>1.030166194290693</v>
       </c>
       <c r="D3">
-        <v>1.02464424438421</v>
+        <v>1.033667725293768</v>
       </c>
       <c r="E3">
-        <v>1.020474571349097</v>
+        <v>1.039540673569085</v>
       </c>
       <c r="F3">
-        <v>1.022778559656591</v>
+        <v>1.049777376184659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047411719440245</v>
+        <v>1.035618480492842</v>
       </c>
       <c r="J3">
-        <v>1.029689434996536</v>
+        <v>1.034955134405948</v>
       </c>
       <c r="K3">
-        <v>1.034971216529834</v>
+        <v>1.036280602726234</v>
       </c>
       <c r="L3">
-        <v>1.030852010921655</v>
+        <v>1.042137947312219</v>
       </c>
       <c r="M3">
-        <v>1.033128049853351</v>
+        <v>1.052347902863642</v>
       </c>
       <c r="N3">
-        <v>1.013843195109469</v>
+        <v>1.015666406153588</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011837568011329</v>
+        <v>1.030677412003788</v>
       </c>
       <c r="D4">
-        <v>1.026332623452231</v>
+        <v>1.034038896022996</v>
       </c>
       <c r="E4">
-        <v>1.022640806881544</v>
+        <v>1.040043167501797</v>
       </c>
       <c r="F4">
-        <v>1.025574128754729</v>
+        <v>1.050441853987587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048102997716191</v>
+        <v>1.035728514568565</v>
       </c>
       <c r="J4">
-        <v>1.03094323933665</v>
+        <v>1.035233915036383</v>
       </c>
       <c r="K4">
-        <v>1.036123294489939</v>
+        <v>1.036527830289363</v>
       </c>
       <c r="L4">
-        <v>1.032473445946925</v>
+        <v>1.042516950260741</v>
       </c>
       <c r="M4">
-        <v>1.035373391844755</v>
+        <v>1.052889837088291</v>
       </c>
       <c r="N4">
-        <v>1.014260253125269</v>
+        <v>1.015758869003269</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012829362599957</v>
+        <v>1.030892428374054</v>
       </c>
       <c r="D5">
-        <v>1.027035322895691</v>
+        <v>1.034194992124581</v>
       </c>
       <c r="E5">
-        <v>1.023543130886852</v>
+        <v>1.040254616169652</v>
       </c>
       <c r="F5">
-        <v>1.026738785643375</v>
+        <v>1.050721530826112</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048387956091124</v>
+        <v>1.035774481324573</v>
       </c>
       <c r="J5">
-        <v>1.031463941329607</v>
+        <v>1.035351053970645</v>
       </c>
       <c r="K5">
-        <v>1.036601344497565</v>
+        <v>1.036631653171344</v>
       </c>
       <c r="L5">
-        <v>1.033147786690003</v>
+        <v>1.042676325699563</v>
       </c>
       <c r="M5">
-        <v>1.036308075295037</v>
+        <v>1.05311785084507</v>
       </c>
       <c r="N5">
-        <v>1.014433449345219</v>
+        <v>1.015797716212017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012995277225101</v>
+        <v>1.030928536411195</v>
       </c>
       <c r="D6">
-        <v>1.027152898335417</v>
+        <v>1.034221204576137</v>
       </c>
       <c r="E6">
-        <v>1.023694152067451</v>
+        <v>1.04029013102301</v>
       </c>
       <c r="F6">
-        <v>1.026933725470634</v>
+        <v>1.050768509123212</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048435473103336</v>
+        <v>1.035782182224805</v>
       </c>
       <c r="J6">
-        <v>1.031550998889037</v>
+        <v>1.035370718534557</v>
       </c>
       <c r="K6">
-        <v>1.036681246812676</v>
+        <v>1.036649078911724</v>
       </c>
       <c r="L6">
-        <v>1.033260588588902</v>
+        <v>1.042703087996215</v>
       </c>
       <c r="M6">
-        <v>1.0364644781481</v>
+        <v>1.053156146139679</v>
       </c>
       <c r="N6">
-        <v>1.014462406030201</v>
+        <v>1.015804237399598</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011850861626225</v>
+        <v>1.030680284670426</v>
       </c>
       <c r="D7">
-        <v>1.026342040598162</v>
+        <v>1.034040981569169</v>
       </c>
       <c r="E7">
-        <v>1.02265289629791</v>
+        <v>1.040045992104652</v>
       </c>
       <c r="F7">
-        <v>1.025589732132048</v>
+        <v>1.050445589747121</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04810682743277</v>
+        <v>1.035729129925248</v>
       </c>
       <c r="J7">
-        <v>1.030950221910753</v>
+        <v>1.035235480491528</v>
       </c>
       <c r="K7">
-        <v>1.036129706720038</v>
+        <v>1.036529218015755</v>
       </c>
       <c r="L7">
-        <v>1.032482484979786</v>
+        <v>1.042519079677446</v>
       </c>
       <c r="M7">
-        <v>1.03538591712933</v>
+        <v>1.05289288309578</v>
       </c>
       <c r="N7">
-        <v>1.014262575702996</v>
+        <v>1.015759388177083</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006976606967006</v>
+        <v>1.029643489794756</v>
       </c>
       <c r="D8">
-        <v>1.022892085505107</v>
+        <v>1.033288158124142</v>
       </c>
       <c r="E8">
-        <v>1.018228965189222</v>
+        <v>1.039027235074687</v>
       </c>
       <c r="F8">
-        <v>1.019881113798429</v>
+        <v>1.049098647712364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04668487917718</v>
+        <v>1.035504907582472</v>
       </c>
       <c r="J8">
-        <v>1.028384350299096</v>
+        <v>1.034669697757948</v>
       </c>
       <c r="K8">
-        <v>1.033770646342442</v>
+        <v>1.036027275272199</v>
       </c>
       <c r="L8">
-        <v>1.029167547645383</v>
+        <v>1.041750320086494</v>
       </c>
       <c r="M8">
-        <v>1.030798352000441</v>
+        <v>1.051794057386108</v>
       </c>
       <c r="N8">
-        <v>1.013409059523294</v>
+        <v>1.015571721724166</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9980227880030206</v>
+        <v>1.02781986296577</v>
       </c>
       <c r="D9">
-        <v>1.016571391652726</v>
+        <v>1.031963507832455</v>
       </c>
       <c r="E9">
-        <v>1.010145470952152</v>
+        <v>1.037238589513838</v>
       </c>
       <c r="F9">
-        <v>1.009453526029255</v>
+        <v>1.046735858338226</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043990277124986</v>
+        <v>1.035100530690744</v>
       </c>
       <c r="J9">
-        <v>1.023645560442639</v>
+        <v>1.033670872201578</v>
       </c>
       <c r="K9">
-        <v>1.029401211618401</v>
+        <v>1.035139309636468</v>
       </c>
       <c r="L9">
-        <v>1.023076061899541</v>
+        <v>1.040397132140116</v>
       </c>
       <c r="M9">
-        <v>1.022395066006669</v>
+        <v>1.049863807550775</v>
       </c>
       <c r="N9">
-        <v>1.011832625853907</v>
+        <v>1.015240287980712</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9917856547603637</v>
+        <v>1.026606453583973</v>
       </c>
       <c r="D10">
-        <v>1.012182620832079</v>
+        <v>1.031081802004838</v>
       </c>
       <c r="E10">
-        <v>1.004544940502569</v>
+        <v>1.036050653530774</v>
       </c>
       <c r="F10">
-        <v>1.002228613518381</v>
+        <v>1.045167953742466</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042059751696083</v>
+        <v>1.034824760740472</v>
       </c>
       <c r="J10">
-        <v>1.020329014745789</v>
+        <v>1.033003818552254</v>
       </c>
       <c r="K10">
-        <v>1.02633534380612</v>
+        <v>1.034545065246852</v>
       </c>
       <c r="L10">
-        <v>1.018832616673121</v>
+        <v>1.039496071135833</v>
       </c>
       <c r="M10">
-        <v>1.016557745908351</v>
+        <v>1.048581112945244</v>
       </c>
       <c r="N10">
-        <v>1.010729343643242</v>
+        <v>1.015018858503526</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9890159428975908</v>
+        <v>1.02608160983478</v>
       </c>
       <c r="D11">
-        <v>1.010237721713626</v>
+        <v>1.03070036610385</v>
       </c>
       <c r="E11">
-        <v>1.002065405645655</v>
+        <v>1.035537351414018</v>
       </c>
       <c r="F11">
-        <v>0.9990292415922096</v>
+        <v>1.044490782951727</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041190302903641</v>
+        <v>1.034703891931697</v>
       </c>
       <c r="J11">
-        <v>1.018852919930781</v>
+        <v>1.03271471416881</v>
       </c>
       <c r="K11">
-        <v>1.024969118117787</v>
+        <v>1.034287228117203</v>
       </c>
       <c r="L11">
-        <v>1.016948476271558</v>
+        <v>1.039106170932461</v>
       </c>
       <c r="M11">
-        <v>1.013969488244221</v>
+        <v>1.048026692554024</v>
       </c>
       <c r="N11">
-        <v>1.010238331785312</v>
+        <v>1.014922869988438</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9879762903686211</v>
+        <v>1.025886746849201</v>
       </c>
       <c r="D12">
-        <v>1.009508335847289</v>
+        <v>1.030558737948317</v>
       </c>
       <c r="E12">
-        <v>1.001135825007963</v>
+        <v>1.035346852428118</v>
       </c>
       <c r="F12">
-        <v>0.9978296391270208</v>
+        <v>1.044239514966196</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040862160299511</v>
+        <v>1.034658777498091</v>
       </c>
       <c r="J12">
-        <v>1.018298378629491</v>
+        <v>1.032607289178094</v>
       </c>
       <c r="K12">
-        <v>1.024455610525185</v>
+        <v>1.034191378194855</v>
       </c>
       <c r="L12">
-        <v>1.016241296707578</v>
+        <v>1.038961385813654</v>
       </c>
       <c r="M12">
-        <v>1.01299853828576</v>
+        <v>1.047820907111716</v>
       </c>
       <c r="N12">
-        <v>1.010053873483414</v>
+        <v>1.014887199759918</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9881997989662508</v>
+        <v>1.025928541641943</v>
       </c>
       <c r="D13">
-        <v>1.009665111275978</v>
+        <v>1.030589115191164</v>
       </c>
       <c r="E13">
-        <v>1.00133561754257</v>
+        <v>1.035387707645913</v>
       </c>
       <c r="F13">
-        <v>0.9980874746478929</v>
+        <v>1.04429340085632</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04093278547714</v>
+        <v>1.034668464566995</v>
       </c>
       <c r="J13">
-        <v>1.018417616689665</v>
+        <v>1.032630333937927</v>
       </c>
       <c r="K13">
-        <v>1.024566036194667</v>
+        <v>1.03421194182684</v>
       </c>
       <c r="L13">
-        <v>1.016393325813969</v>
+        <v>1.038992440828254</v>
       </c>
       <c r="M13">
-        <v>1.013207250165721</v>
+        <v>1.047865041931309</v>
       </c>
       <c r="N13">
-        <v>1.010093535616938</v>
+        <v>1.014894851854189</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.988930229354773</v>
+        <v>1.026065500608186</v>
       </c>
       <c r="D14">
-        <v>1.010177574143551</v>
+        <v>1.030688657962124</v>
       </c>
       <c r="E14">
-        <v>1.001988743387749</v>
+        <v>1.035521601347332</v>
       </c>
       <c r="F14">
-        <v>0.9989303141578865</v>
+        <v>1.044470007678912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041163285348567</v>
+        <v>1.034700167208944</v>
       </c>
       <c r="J14">
-        <v>1.0188072104095</v>
+        <v>1.032705835169263</v>
       </c>
       <c r="K14">
-        <v>1.024926795750745</v>
+        <v>1.034279306711492</v>
       </c>
       <c r="L14">
-        <v>1.016890171890304</v>
+        <v>1.039094202101624</v>
       </c>
       <c r="M14">
-        <v>1.013889426805237</v>
+        <v>1.048009679176529</v>
       </c>
       <c r="N14">
-        <v>1.010223127199648</v>
+        <v>1.014919921796525</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.989378817559446</v>
+        <v>1.02614989717143</v>
       </c>
       <c r="D15">
-        <v>1.010492388230571</v>
+        <v>1.03074999677275</v>
       </c>
       <c r="E15">
-        <v>1.002390008057476</v>
+        <v>1.035604119495192</v>
       </c>
       <c r="F15">
-        <v>0.9994481123387734</v>
+        <v>1.044578855923012</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041304611332602</v>
+        <v>1.034719671338784</v>
       </c>
       <c r="J15">
-        <v>1.019046415732229</v>
+        <v>1.03275234887011</v>
       </c>
       <c r="K15">
-        <v>1.025148265758342</v>
+        <v>1.034320802175887</v>
       </c>
       <c r="L15">
-        <v>1.01719531482707</v>
+        <v>1.03915690607714</v>
       </c>
       <c r="M15">
-        <v>1.014308458428892</v>
+        <v>1.048098815008119</v>
       </c>
       <c r="N15">
-        <v>1.010302695500313</v>
+        <v>1.01493536613162</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9919679764251919</v>
+        <v>1.02664129789501</v>
       </c>
       <c r="D16">
-        <v>1.01231073616395</v>
+        <v>1.031107124142803</v>
       </c>
       <c r="E16">
-        <v>1.004708318895472</v>
+        <v>1.036084742644816</v>
       </c>
       <c r="F16">
-        <v>1.002439404050089</v>
+        <v>1.045212932185032</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042116734946347</v>
+        <v>1.034832751739221</v>
       </c>
       <c r="J16">
-        <v>1.020426114935374</v>
+        <v>1.033022999959342</v>
       </c>
       <c r="K16">
-        <v>1.026425182295748</v>
+        <v>1.034562166081244</v>
       </c>
       <c r="L16">
-        <v>1.018956650918012</v>
+        <v>1.039521953229169</v>
       </c>
       <c r="M16">
-        <v>1.016728204853581</v>
+        <v>1.048617929089874</v>
       </c>
       <c r="N16">
-        <v>1.010761643984373</v>
+        <v>1.015025226703598</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9935732774196181</v>
+        <v>1.026949694486176</v>
       </c>
       <c r="D17">
-        <v>1.013439227125381</v>
+        <v>1.031331235262933</v>
       </c>
       <c r="E17">
-        <v>1.006147684603932</v>
+        <v>1.036386515743364</v>
       </c>
       <c r="F17">
-        <v>1.004296388434683</v>
+        <v>1.045611139080435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042617078344753</v>
+        <v>1.034903294115746</v>
       </c>
       <c r="J17">
-        <v>1.021280685177925</v>
+        <v>1.03319270191814</v>
       </c>
       <c r="K17">
-        <v>1.027215650981415</v>
+        <v>1.034713427469655</v>
       </c>
       <c r="L17">
-        <v>1.020048774474896</v>
+        <v>1.03975100959932</v>
       </c>
       <c r="M17">
-        <v>1.018229503436196</v>
+        <v>1.04894382305232</v>
       </c>
       <c r="N17">
-        <v>1.011045919620916</v>
+        <v>1.015081565223572</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9945030004176684</v>
+        <v>1.027129631937224</v>
       </c>
       <c r="D18">
-        <v>1.014093179338479</v>
+        <v>1.031461988999163</v>
       </c>
       <c r="E18">
-        <v>1.006982014226118</v>
+        <v>1.036562639168685</v>
       </c>
       <c r="F18">
-        <v>1.005372730859463</v>
+        <v>1.045843574416357</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042905697069229</v>
+        <v>1.034944299505565</v>
       </c>
       <c r="J18">
-        <v>1.021775298451309</v>
+        <v>1.033291660479601</v>
       </c>
       <c r="K18">
-        <v>1.027673000909581</v>
+        <v>1.034801604905607</v>
       </c>
       <c r="L18">
-        <v>1.020681307594007</v>
+        <v>1.039884639798669</v>
       </c>
       <c r="M18">
-        <v>1.0190993639715</v>
+        <v>1.04913400737266</v>
       </c>
       <c r="N18">
-        <v>1.01121045671197</v>
+        <v>1.015114416071872</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9948189032305993</v>
+        <v>1.02719099522652</v>
       </c>
       <c r="D19">
-        <v>1.014315442653456</v>
+        <v>1.031506578274851</v>
       </c>
       <c r="E19">
-        <v>1.007265623706637</v>
+        <v>1.036622710341187</v>
       </c>
       <c r="F19">
-        <v>1.005738597872935</v>
+        <v>1.045922857303451</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043003566449601</v>
+        <v>1.034958257381084</v>
       </c>
       <c r="J19">
-        <v>1.02194330408869</v>
+        <v>1.033325398393408</v>
       </c>
       <c r="K19">
-        <v>1.027828321362641</v>
+        <v>1.034831662484047</v>
       </c>
       <c r="L19">
-        <v>1.020896233571016</v>
+        <v>1.03993020852679</v>
       </c>
       <c r="M19">
-        <v>1.019394989507456</v>
+        <v>1.049198871528976</v>
       </c>
       <c r="N19">
-        <v>1.011266345484098</v>
+        <v>1.015125615575713</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.99340173221971</v>
+        <v>1.02691660075636</v>
       </c>
       <c r="D20">
-        <v>1.013318595089864</v>
+        <v>1.031307186781772</v>
       </c>
       <c r="E20">
-        <v>1.005993797777447</v>
+        <v>1.036354127547022</v>
       </c>
       <c r="F20">
-        <v>1.004097859383624</v>
+        <v>1.045568397861182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042563730704939</v>
+        <v>1.034895740142897</v>
       </c>
       <c r="J20">
-        <v>1.021189397098957</v>
+        <v>1.033174497155853</v>
       </c>
       <c r="K20">
-        <v>1.027131227186908</v>
+        <v>1.034697203797194</v>
       </c>
       <c r="L20">
-        <v>1.01993206594216</v>
+        <v>1.039726431371936</v>
       </c>
       <c r="M20">
-        <v>1.018069033568062</v>
+        <v>1.048908847785538</v>
       </c>
       <c r="N20">
-        <v>1.011015552082032</v>
+        <v>1.015075521712175</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.988715439659535</v>
+        <v>1.026025167181753</v>
       </c>
       <c r="D21">
-        <v>1.010026861108404</v>
+        <v>1.030659343589004</v>
       </c>
       <c r="E21">
-        <v>1.001796653934732</v>
+        <v>1.0354821684409</v>
       </c>
       <c r="F21">
-        <v>0.9986824331036299</v>
+        <v>1.04441799408719</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041095553458135</v>
+        <v>1.034690837593192</v>
       </c>
       <c r="J21">
-        <v>1.018692659434747</v>
+        <v>1.032683602998713</v>
       </c>
       <c r="K21">
-        <v>1.024820729346386</v>
+        <v>1.034259471568136</v>
       </c>
       <c r="L21">
-        <v>1.01674406791552</v>
+        <v>1.039064234795497</v>
       </c>
       <c r="M21">
-        <v>1.013688810261794</v>
+        <v>1.047967082932939</v>
       </c>
       <c r="N21">
-        <v>1.010185023636512</v>
+        <v>1.014912539756707</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9857058930628678</v>
+        <v>1.025465193713138</v>
       </c>
       <c r="D22">
-        <v>1.007916780382267</v>
+        <v>1.030252332858093</v>
       </c>
       <c r="E22">
-        <v>0.9991079450879398</v>
+        <v>1.034934884436955</v>
       </c>
       <c r="F22">
-        <v>0.9952123629207049</v>
+        <v>1.043696214326896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040142337315284</v>
+        <v>1.03456074414709</v>
       </c>
       <c r="J22">
-        <v>1.017086546760792</v>
+        <v>1.032374734742755</v>
       </c>
       <c r="K22">
-        <v>1.02333301897754</v>
+        <v>1.033983802801375</v>
       </c>
       <c r="L22">
-        <v>1.014697094497721</v>
+        <v>1.038648124426717</v>
       </c>
       <c r="M22">
-        <v>1.010879264232574</v>
+        <v>1.047375832246686</v>
       </c>
       <c r="N22">
-        <v>1.009650791642863</v>
+        <v>1.014809975209355</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9873074631955017</v>
+        <v>1.02576199771482</v>
       </c>
       <c r="D23">
-        <v>1.009039302434229</v>
+        <v>1.030468066598499</v>
       </c>
       <c r="E23">
-        <v>1.000538136273943</v>
+        <v>1.035224919297721</v>
       </c>
       <c r="F23">
-        <v>0.997058285281155</v>
+        <v>1.04407869835534</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040650563932131</v>
+        <v>1.034629828615178</v>
       </c>
       <c r="J23">
-        <v>1.017941504694267</v>
+        <v>1.032538492452938</v>
       </c>
       <c r="K23">
-        <v>1.024125077228348</v>
+        <v>1.034129982203023</v>
       </c>
       <c r="L23">
-        <v>1.015786375601195</v>
+        <v>1.038868689313584</v>
       </c>
       <c r="M23">
-        <v>1.012374075706046</v>
+        <v>1.047689182046889</v>
       </c>
       <c r="N23">
-        <v>1.009935167548042</v>
+        <v>1.014864355133022</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9934792665396464</v>
+        <v>1.026931554218809</v>
       </c>
       <c r="D24">
-        <v>1.013373116713474</v>
+        <v>1.031318053151934</v>
       </c>
       <c r="E24">
-        <v>1.006063348738884</v>
+        <v>1.036368762056812</v>
       </c>
       <c r="F24">
-        <v>1.004187587106205</v>
+        <v>1.045587710259508</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042587846156251</v>
+        <v>1.034899153893162</v>
       </c>
       <c r="J24">
-        <v>1.021230658111254</v>
+        <v>1.033182723183928</v>
       </c>
       <c r="K24">
-        <v>1.027169386136908</v>
+        <v>1.034704534733466</v>
       </c>
       <c r="L24">
-        <v>1.019984815339374</v>
+        <v>1.039737537136321</v>
       </c>
       <c r="M24">
-        <v>1.018141560952605</v>
+        <v>1.048924651307005</v>
       </c>
       <c r="N24">
-        <v>1.011029277803507</v>
+        <v>1.015078252547198</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000383047161658</v>
+        <v>1.028290908585207</v>
       </c>
       <c r="D25">
-        <v>1.018235313977681</v>
+        <v>1.032305723438715</v>
       </c>
       <c r="E25">
-        <v>1.012271158545795</v>
+        <v>1.037700212489159</v>
       </c>
       <c r="F25">
-        <v>1.012195495550545</v>
+        <v>1.047345418592022</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044709992024107</v>
+        <v>1.035206165409235</v>
       </c>
       <c r="J25">
-        <v>1.024897527114715</v>
+        <v>1.033929303877368</v>
       </c>
       <c r="K25">
-        <v>1.030556994956383</v>
+        <v>1.035369274885491</v>
       </c>
       <c r="L25">
-        <v>1.024681921029133</v>
+        <v>1.040746781895387</v>
       </c>
       <c r="M25">
-        <v>1.024607396732802</v>
+        <v>1.050362100550425</v>
       </c>
       <c r="N25">
-        <v>1.01224911604052</v>
+        <v>1.015326056851311</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029376799356197</v>
+        <v>1.005697809652111</v>
       </c>
       <c r="D2">
-        <v>1.033094477126458</v>
+        <v>1.021987982216154</v>
       </c>
       <c r="E2">
-        <v>1.038765405128893</v>
+        <v>1.017071147056525</v>
       </c>
       <c r="F2">
-        <v>1.048752612011598</v>
+        <v>1.018387380580372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035446552766692</v>
+        <v>1.04630623413437</v>
       </c>
       <c r="J2">
-        <v>1.034523914377592</v>
+        <v>1.027709425603334</v>
       </c>
       <c r="K2">
-        <v>1.035897815932917</v>
+        <v>1.033149258278565</v>
       </c>
       <c r="L2">
-        <v>1.041552506389207</v>
+        <v>1.028297668376875</v>
       </c>
       <c r="M2">
-        <v>1.051511580072573</v>
+        <v>1.029596358268379</v>
       </c>
       <c r="N2">
-        <v>1.015523357451605</v>
+        <v>1.0131845403314</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030166194290693</v>
+        <v>1.00945319785588</v>
       </c>
       <c r="D3">
-        <v>1.033667725293768</v>
+        <v>1.02464424438421</v>
       </c>
       <c r="E3">
-        <v>1.039540673569085</v>
+        <v>1.020474571349097</v>
       </c>
       <c r="F3">
-        <v>1.049777376184659</v>
+        <v>1.022778559656591</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035618480492842</v>
+        <v>1.047411719440245</v>
       </c>
       <c r="J3">
-        <v>1.034955134405948</v>
+        <v>1.029689434996536</v>
       </c>
       <c r="K3">
-        <v>1.036280602726234</v>
+        <v>1.034971216529835</v>
       </c>
       <c r="L3">
-        <v>1.042137947312219</v>
+        <v>1.030852010921655</v>
       </c>
       <c r="M3">
-        <v>1.052347902863642</v>
+        <v>1.033128049853351</v>
       </c>
       <c r="N3">
-        <v>1.015666406153588</v>
+        <v>1.013843195109469</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030677412003788</v>
+        <v>1.011837568011329</v>
       </c>
       <c r="D4">
-        <v>1.034038896022996</v>
+        <v>1.02633262345223</v>
       </c>
       <c r="E4">
-        <v>1.040043167501797</v>
+        <v>1.022640806881544</v>
       </c>
       <c r="F4">
-        <v>1.050441853987587</v>
+        <v>1.025574128754728</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035728514568565</v>
+        <v>1.04810299771619</v>
       </c>
       <c r="J4">
-        <v>1.035233915036383</v>
+        <v>1.03094323933665</v>
       </c>
       <c r="K4">
-        <v>1.036527830289363</v>
+        <v>1.036123294489938</v>
       </c>
       <c r="L4">
-        <v>1.042516950260741</v>
+        <v>1.032473445946924</v>
       </c>
       <c r="M4">
-        <v>1.052889837088291</v>
+        <v>1.035373391844754</v>
       </c>
       <c r="N4">
-        <v>1.015758869003269</v>
+        <v>1.014260253125269</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030892428374054</v>
+        <v>1.012829362599957</v>
       </c>
       <c r="D5">
-        <v>1.034194992124581</v>
+        <v>1.027035322895691</v>
       </c>
       <c r="E5">
-        <v>1.040254616169652</v>
+        <v>1.023543130886851</v>
       </c>
       <c r="F5">
-        <v>1.050721530826112</v>
+        <v>1.026738785643374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035774481324573</v>
+        <v>1.048387956091124</v>
       </c>
       <c r="J5">
-        <v>1.035351053970645</v>
+        <v>1.031463941329606</v>
       </c>
       <c r="K5">
-        <v>1.036631653171344</v>
+        <v>1.036601344497564</v>
       </c>
       <c r="L5">
-        <v>1.042676325699563</v>
+        <v>1.033147786690003</v>
       </c>
       <c r="M5">
-        <v>1.05311785084507</v>
+        <v>1.036308075295037</v>
       </c>
       <c r="N5">
-        <v>1.015797716212017</v>
+        <v>1.014433449345219</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030928536411195</v>
+        <v>1.0129952772251</v>
       </c>
       <c r="D6">
-        <v>1.034221204576137</v>
+        <v>1.027152898335417</v>
       </c>
       <c r="E6">
-        <v>1.04029013102301</v>
+        <v>1.023694152067449</v>
       </c>
       <c r="F6">
-        <v>1.050768509123212</v>
+        <v>1.026933725470634</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035782182224805</v>
+        <v>1.048435473103336</v>
       </c>
       <c r="J6">
-        <v>1.035370718534557</v>
+        <v>1.031550998889037</v>
       </c>
       <c r="K6">
-        <v>1.036649078911724</v>
+        <v>1.036681246812675</v>
       </c>
       <c r="L6">
-        <v>1.042703087996215</v>
+        <v>1.033260588588902</v>
       </c>
       <c r="M6">
-        <v>1.053156146139679</v>
+        <v>1.0364644781481</v>
       </c>
       <c r="N6">
-        <v>1.015804237399598</v>
+        <v>1.014462406030201</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030680284670426</v>
+        <v>1.011850861626225</v>
       </c>
       <c r="D7">
-        <v>1.034040981569169</v>
+        <v>1.026342040598161</v>
       </c>
       <c r="E7">
-        <v>1.040045992104652</v>
+        <v>1.02265289629791</v>
       </c>
       <c r="F7">
-        <v>1.050445589747121</v>
+        <v>1.025589732132048</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035729129925248</v>
+        <v>1.04810682743277</v>
       </c>
       <c r="J7">
-        <v>1.035235480491528</v>
+        <v>1.030950221910753</v>
       </c>
       <c r="K7">
-        <v>1.036529218015755</v>
+        <v>1.036129706720037</v>
       </c>
       <c r="L7">
-        <v>1.042519079677446</v>
+        <v>1.032482484979786</v>
       </c>
       <c r="M7">
-        <v>1.05289288309578</v>
+        <v>1.03538591712933</v>
       </c>
       <c r="N7">
-        <v>1.015759388177083</v>
+        <v>1.014262575702996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029643489794756</v>
+        <v>1.006976606967007</v>
       </c>
       <c r="D8">
-        <v>1.033288158124142</v>
+        <v>1.022892085505107</v>
       </c>
       <c r="E8">
-        <v>1.039027235074687</v>
+        <v>1.018228965189223</v>
       </c>
       <c r="F8">
-        <v>1.049098647712364</v>
+        <v>1.01988111379843</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035504907582472</v>
+        <v>1.046684879177181</v>
       </c>
       <c r="J8">
-        <v>1.034669697757948</v>
+        <v>1.028384350299096</v>
       </c>
       <c r="K8">
-        <v>1.036027275272199</v>
+        <v>1.033770646342443</v>
       </c>
       <c r="L8">
-        <v>1.041750320086494</v>
+        <v>1.029167547645384</v>
       </c>
       <c r="M8">
-        <v>1.051794057386108</v>
+        <v>1.030798352000442</v>
       </c>
       <c r="N8">
-        <v>1.015571721724166</v>
+        <v>1.013409059523294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02781986296577</v>
+        <v>0.9980227880030198</v>
       </c>
       <c r="D9">
-        <v>1.031963507832455</v>
+        <v>1.016571391652725</v>
       </c>
       <c r="E9">
-        <v>1.037238589513838</v>
+        <v>1.01014547095215</v>
       </c>
       <c r="F9">
-        <v>1.046735858338226</v>
+        <v>1.009453526029254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035100530690744</v>
+        <v>1.043990277124985</v>
       </c>
       <c r="J9">
-        <v>1.033670872201578</v>
+        <v>1.023645560442638</v>
       </c>
       <c r="K9">
-        <v>1.035139309636468</v>
+        <v>1.0294012116184</v>
       </c>
       <c r="L9">
-        <v>1.040397132140116</v>
+        <v>1.02307606189954</v>
       </c>
       <c r="M9">
-        <v>1.049863807550775</v>
+        <v>1.022395066006668</v>
       </c>
       <c r="N9">
-        <v>1.015240287980712</v>
+        <v>1.011832625853907</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026606453583973</v>
+        <v>0.9917856547603643</v>
       </c>
       <c r="D10">
-        <v>1.031081802004838</v>
+        <v>1.012182620832079</v>
       </c>
       <c r="E10">
-        <v>1.036050653530774</v>
+        <v>1.004544940502569</v>
       </c>
       <c r="F10">
-        <v>1.045167953742466</v>
+        <v>1.002228613518382</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034824760740472</v>
+        <v>1.042059751696084</v>
       </c>
       <c r="J10">
-        <v>1.033003818552254</v>
+        <v>1.02032901474579</v>
       </c>
       <c r="K10">
-        <v>1.034545065246852</v>
+        <v>1.02633534380612</v>
       </c>
       <c r="L10">
-        <v>1.039496071135833</v>
+        <v>1.018832616673122</v>
       </c>
       <c r="M10">
-        <v>1.048581112945244</v>
+        <v>1.016557745908352</v>
       </c>
       <c r="N10">
-        <v>1.015018858503526</v>
+        <v>1.010729343643242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02608160983478</v>
+        <v>0.9890159428975914</v>
       </c>
       <c r="D11">
-        <v>1.03070036610385</v>
+        <v>1.010237721713627</v>
       </c>
       <c r="E11">
-        <v>1.035537351414018</v>
+        <v>1.002065405645656</v>
       </c>
       <c r="F11">
-        <v>1.044490782951727</v>
+        <v>0.9990292415922101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034703891931697</v>
+        <v>1.041190302903641</v>
       </c>
       <c r="J11">
-        <v>1.03271471416881</v>
+        <v>1.018852919930781</v>
       </c>
       <c r="K11">
-        <v>1.034287228117203</v>
+        <v>1.024969118117787</v>
       </c>
       <c r="L11">
-        <v>1.039106170932461</v>
+        <v>1.016948476271558</v>
       </c>
       <c r="M11">
-        <v>1.048026692554024</v>
+        <v>1.013969488244221</v>
       </c>
       <c r="N11">
-        <v>1.014922869988438</v>
+        <v>1.010238331785312</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025886746849201</v>
+        <v>0.9879762903686216</v>
       </c>
       <c r="D12">
-        <v>1.030558737948317</v>
+        <v>1.00950833584729</v>
       </c>
       <c r="E12">
-        <v>1.035346852428118</v>
+        <v>1.001135825007963</v>
       </c>
       <c r="F12">
-        <v>1.044239514966196</v>
+        <v>0.9978296391270214</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034658777498091</v>
+        <v>1.040862160299512</v>
       </c>
       <c r="J12">
-        <v>1.032607289178094</v>
+        <v>1.018298378629491</v>
       </c>
       <c r="K12">
-        <v>1.034191378194855</v>
+        <v>1.024455610525185</v>
       </c>
       <c r="L12">
-        <v>1.038961385813654</v>
+        <v>1.016241296707578</v>
       </c>
       <c r="M12">
-        <v>1.047820907111716</v>
+        <v>1.012998538285761</v>
       </c>
       <c r="N12">
-        <v>1.014887199759918</v>
+        <v>1.010053873483414</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025928541641943</v>
+        <v>0.9881997989662495</v>
       </c>
       <c r="D13">
-        <v>1.030589115191164</v>
+        <v>1.009665111275976</v>
       </c>
       <c r="E13">
-        <v>1.035387707645913</v>
+        <v>1.001335617542569</v>
       </c>
       <c r="F13">
-        <v>1.04429340085632</v>
+        <v>0.9980874746478914</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034668464566995</v>
+        <v>1.040932785477139</v>
       </c>
       <c r="J13">
-        <v>1.032630333937927</v>
+        <v>1.018417616689664</v>
       </c>
       <c r="K13">
-        <v>1.03421194182684</v>
+        <v>1.024566036194666</v>
       </c>
       <c r="L13">
-        <v>1.038992440828254</v>
+        <v>1.016393325813967</v>
       </c>
       <c r="M13">
-        <v>1.047865041931309</v>
+        <v>1.013207250165719</v>
       </c>
       <c r="N13">
-        <v>1.014894851854189</v>
+        <v>1.010093535616937</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026065500608186</v>
+        <v>0.9889302293547727</v>
       </c>
       <c r="D14">
-        <v>1.030688657962124</v>
+        <v>1.01017757414355</v>
       </c>
       <c r="E14">
-        <v>1.035521601347332</v>
+        <v>1.001988743387749</v>
       </c>
       <c r="F14">
-        <v>1.044470007678912</v>
+        <v>0.9989303141578864</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034700167208944</v>
+        <v>1.041163285348567</v>
       </c>
       <c r="J14">
-        <v>1.032705835169263</v>
+        <v>1.0188072104095</v>
       </c>
       <c r="K14">
-        <v>1.034279306711492</v>
+        <v>1.024926795750745</v>
       </c>
       <c r="L14">
-        <v>1.039094202101624</v>
+        <v>1.016890171890303</v>
       </c>
       <c r="M14">
-        <v>1.048009679176529</v>
+        <v>1.013889426805237</v>
       </c>
       <c r="N14">
-        <v>1.014919921796525</v>
+        <v>1.010223127199648</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02614989717143</v>
+        <v>0.9893788175594461</v>
       </c>
       <c r="D15">
-        <v>1.03074999677275</v>
+        <v>1.010492388230571</v>
       </c>
       <c r="E15">
-        <v>1.035604119495192</v>
+        <v>1.002390008057476</v>
       </c>
       <c r="F15">
-        <v>1.044578855923012</v>
+        <v>0.9994481123387733</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034719671338784</v>
+        <v>1.041304611332602</v>
       </c>
       <c r="J15">
-        <v>1.03275234887011</v>
+        <v>1.019046415732229</v>
       </c>
       <c r="K15">
-        <v>1.034320802175887</v>
+        <v>1.025148265758343</v>
       </c>
       <c r="L15">
-        <v>1.03915690607714</v>
+        <v>1.01719531482707</v>
       </c>
       <c r="M15">
-        <v>1.048098815008119</v>
+        <v>1.014308458428893</v>
       </c>
       <c r="N15">
-        <v>1.01493536613162</v>
+        <v>1.010302695500313</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02664129789501</v>
+        <v>0.9919679764251925</v>
       </c>
       <c r="D16">
-        <v>1.031107124142803</v>
+        <v>1.012310736163951</v>
       </c>
       <c r="E16">
-        <v>1.036084742644816</v>
+        <v>1.004708318895473</v>
       </c>
       <c r="F16">
-        <v>1.045212932185032</v>
+        <v>1.00243940405009</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034832751739221</v>
+        <v>1.042116734946348</v>
       </c>
       <c r="J16">
-        <v>1.033022999959342</v>
+        <v>1.020426114935374</v>
       </c>
       <c r="K16">
-        <v>1.034562166081244</v>
+        <v>1.026425182295749</v>
       </c>
       <c r="L16">
-        <v>1.039521953229169</v>
+        <v>1.018956650918013</v>
       </c>
       <c r="M16">
-        <v>1.048617929089874</v>
+        <v>1.016728204853582</v>
       </c>
       <c r="N16">
-        <v>1.015025226703598</v>
+        <v>1.010761643984373</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026949694486176</v>
+        <v>0.9935732774196181</v>
       </c>
       <c r="D17">
-        <v>1.031331235262933</v>
+        <v>1.013439227125381</v>
       </c>
       <c r="E17">
-        <v>1.036386515743364</v>
+        <v>1.006147684603932</v>
       </c>
       <c r="F17">
-        <v>1.045611139080435</v>
+        <v>1.004296388434684</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034903294115746</v>
+        <v>1.042617078344753</v>
       </c>
       <c r="J17">
-        <v>1.03319270191814</v>
+        <v>1.021280685177925</v>
       </c>
       <c r="K17">
-        <v>1.034713427469655</v>
+        <v>1.027215650981415</v>
       </c>
       <c r="L17">
-        <v>1.03975100959932</v>
+        <v>1.020048774474896</v>
       </c>
       <c r="M17">
-        <v>1.04894382305232</v>
+        <v>1.018229503436196</v>
       </c>
       <c r="N17">
-        <v>1.015081565223572</v>
+        <v>1.011045919620916</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027129631937224</v>
+        <v>0.9945030004176681</v>
       </c>
       <c r="D18">
-        <v>1.031461988999163</v>
+        <v>1.014093179338478</v>
       </c>
       <c r="E18">
-        <v>1.036562639168685</v>
+        <v>1.006982014226119</v>
       </c>
       <c r="F18">
-        <v>1.045843574416357</v>
+        <v>1.005372730859464</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034944299505565</v>
+        <v>1.042905697069229</v>
       </c>
       <c r="J18">
-        <v>1.033291660479601</v>
+        <v>1.021775298451309</v>
       </c>
       <c r="K18">
-        <v>1.034801604905607</v>
+        <v>1.027673000909581</v>
       </c>
       <c r="L18">
-        <v>1.039884639798669</v>
+        <v>1.020681307594007</v>
       </c>
       <c r="M18">
-        <v>1.04913400737266</v>
+        <v>1.0190993639715</v>
       </c>
       <c r="N18">
-        <v>1.015114416071872</v>
+        <v>1.01121045671197</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02719099522652</v>
+        <v>0.9948189032305995</v>
       </c>
       <c r="D19">
-        <v>1.031506578274851</v>
+        <v>1.014315442653456</v>
       </c>
       <c r="E19">
-        <v>1.036622710341187</v>
+        <v>1.007265623706637</v>
       </c>
       <c r="F19">
-        <v>1.045922857303451</v>
+        <v>1.005738597872935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034958257381084</v>
+        <v>1.043003566449601</v>
       </c>
       <c r="J19">
-        <v>1.033325398393408</v>
+        <v>1.02194330408869</v>
       </c>
       <c r="K19">
-        <v>1.034831662484047</v>
+        <v>1.027828321362641</v>
       </c>
       <c r="L19">
-        <v>1.03993020852679</v>
+        <v>1.020896233571016</v>
       </c>
       <c r="M19">
-        <v>1.049198871528976</v>
+        <v>1.019394989507456</v>
       </c>
       <c r="N19">
-        <v>1.015125615575713</v>
+        <v>1.011266345484098</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02691660075636</v>
+        <v>0.9934017322197093</v>
       </c>
       <c r="D20">
-        <v>1.031307186781772</v>
+        <v>1.013318595089864</v>
       </c>
       <c r="E20">
-        <v>1.036354127547022</v>
+        <v>1.005993797777447</v>
       </c>
       <c r="F20">
-        <v>1.045568397861182</v>
+        <v>1.004097859383624</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034895740142897</v>
+        <v>1.042563730704939</v>
       </c>
       <c r="J20">
-        <v>1.033174497155853</v>
+        <v>1.021189397098956</v>
       </c>
       <c r="K20">
-        <v>1.034697203797194</v>
+        <v>1.027131227186909</v>
       </c>
       <c r="L20">
-        <v>1.039726431371936</v>
+        <v>1.01993206594216</v>
       </c>
       <c r="M20">
-        <v>1.048908847785538</v>
+        <v>1.018069033568062</v>
       </c>
       <c r="N20">
-        <v>1.015075521712175</v>
+        <v>1.011015552082032</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026025167181753</v>
+        <v>0.9887154396595355</v>
       </c>
       <c r="D21">
-        <v>1.030659343589004</v>
+        <v>1.010026861108405</v>
       </c>
       <c r="E21">
-        <v>1.0354821684409</v>
+        <v>1.001796653934733</v>
       </c>
       <c r="F21">
-        <v>1.04441799408719</v>
+        <v>0.9986824331036306</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034690837593192</v>
+        <v>1.041095553458135</v>
       </c>
       <c r="J21">
-        <v>1.032683602998713</v>
+        <v>1.018692659434747</v>
       </c>
       <c r="K21">
-        <v>1.034259471568136</v>
+        <v>1.024820729346387</v>
       </c>
       <c r="L21">
-        <v>1.039064234795497</v>
+        <v>1.016744067915521</v>
       </c>
       <c r="M21">
-        <v>1.047967082932939</v>
+        <v>1.013688810261794</v>
       </c>
       <c r="N21">
-        <v>1.014912539756707</v>
+        <v>1.010185023636512</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025465193713138</v>
+        <v>0.9857058930628677</v>
       </c>
       <c r="D22">
-        <v>1.030252332858093</v>
+        <v>1.007916780382266</v>
       </c>
       <c r="E22">
-        <v>1.034934884436955</v>
+        <v>0.9991079450879398</v>
       </c>
       <c r="F22">
-        <v>1.043696214326896</v>
+        <v>0.9952123629207053</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03456074414709</v>
+        <v>1.040142337315284</v>
       </c>
       <c r="J22">
-        <v>1.032374734742755</v>
+        <v>1.017086546760792</v>
       </c>
       <c r="K22">
-        <v>1.033983802801375</v>
+        <v>1.02333301897754</v>
       </c>
       <c r="L22">
-        <v>1.038648124426717</v>
+        <v>1.014697094497721</v>
       </c>
       <c r="M22">
-        <v>1.047375832246686</v>
+        <v>1.010879264232574</v>
       </c>
       <c r="N22">
-        <v>1.014809975209355</v>
+        <v>1.009650791642863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02576199771482</v>
+        <v>0.9873074631955008</v>
       </c>
       <c r="D23">
-        <v>1.030468066598499</v>
+        <v>1.009039302434228</v>
       </c>
       <c r="E23">
-        <v>1.035224919297721</v>
+        <v>1.000538136273943</v>
       </c>
       <c r="F23">
-        <v>1.04407869835534</v>
+        <v>0.9970582852811549</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034629828615178</v>
+        <v>1.04065056393213</v>
       </c>
       <c r="J23">
-        <v>1.032538492452938</v>
+        <v>1.017941504694267</v>
       </c>
       <c r="K23">
-        <v>1.034129982203023</v>
+        <v>1.024125077228347</v>
       </c>
       <c r="L23">
-        <v>1.038868689313584</v>
+        <v>1.015786375601194</v>
       </c>
       <c r="M23">
-        <v>1.047689182046889</v>
+        <v>1.012374075706046</v>
       </c>
       <c r="N23">
-        <v>1.014864355133022</v>
+        <v>1.009935167548042</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026931554218809</v>
+        <v>0.9934792665396458</v>
       </c>
       <c r="D24">
-        <v>1.031318053151934</v>
+        <v>1.013373116713474</v>
       </c>
       <c r="E24">
-        <v>1.036368762056812</v>
+        <v>1.006063348738883</v>
       </c>
       <c r="F24">
-        <v>1.045587710259508</v>
+        <v>1.004187587106205</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034899153893162</v>
+        <v>1.042587846156251</v>
       </c>
       <c r="J24">
-        <v>1.033182723183928</v>
+        <v>1.021230658111254</v>
       </c>
       <c r="K24">
-        <v>1.034704534733466</v>
+        <v>1.027169386136907</v>
       </c>
       <c r="L24">
-        <v>1.039737537136321</v>
+        <v>1.019984815339373</v>
       </c>
       <c r="M24">
-        <v>1.048924651307005</v>
+        <v>1.018141560952605</v>
       </c>
       <c r="N24">
-        <v>1.015078252547198</v>
+        <v>1.011029277803507</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028290908585207</v>
+        <v>1.000383047161658</v>
       </c>
       <c r="D25">
-        <v>1.032305723438715</v>
+        <v>1.018235313977681</v>
       </c>
       <c r="E25">
-        <v>1.037700212489159</v>
+        <v>1.012271158545796</v>
       </c>
       <c r="F25">
-        <v>1.047345418592022</v>
+        <v>1.012195495550545</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035206165409235</v>
+        <v>1.044709992024107</v>
       </c>
       <c r="J25">
-        <v>1.033929303877368</v>
+        <v>1.024897527114715</v>
       </c>
       <c r="K25">
-        <v>1.035369274885491</v>
+        <v>1.030556994956383</v>
       </c>
       <c r="L25">
-        <v>1.040746781895387</v>
+        <v>1.024681921029133</v>
       </c>
       <c r="M25">
-        <v>1.050362100550425</v>
+        <v>1.024607396732802</v>
       </c>
       <c r="N25">
-        <v>1.015326056851311</v>
+        <v>1.01224911604052</v>
       </c>
     </row>
   </sheetData>
